--- a/app/templates/template_rules_2.xlsx
+++ b/app/templates/template_rules_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="645">
   <si>
     <t xml:space="preserve">Certificado conformidad MINVU.</t>
   </si>
@@ -31,7 +31,10 @@
     <t xml:space="preserve">DO</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
   </si>
   <si>
     <t xml:space="preserve">Plano de planta ascensores (primer piso).</t>
@@ -2054,8 +2057,8 @@
   </sheetPr>
   <dimension ref="A1:E336"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B221" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G234" activeCellId="0" sqref="G234"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B235" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E221" activeCellId="53" sqref="E1:E11 E19 E21 E37 E77 E82 E86 E88 E95 E99 E103 E105:E106 E109:E111 E113 E115 E117:E118 E121:E122 E129:E130 E133 E136 E143:E145 E147:E149 E151 E156:E158 E160:E162 E179:E184 E186:E187 E192 E194:E196 E198 E202:E208 E211 E213 E215 E217:E220 E222:E227 E229 E233 E241 E245:E247 E251:E253 E256 E258:E259 E269 E274:E275 E277 E281 E294 E297 E311 E313 E323 E334:E336 E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2074,15 +2077,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -2091,15 +2094,15 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -2108,15 +2111,15 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -2125,15 +2128,15 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -2142,15 +2145,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -2159,15 +2162,15 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -2176,15 +2179,15 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -2193,15 +2196,15 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -2210,15 +2213,15 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -2227,15 +2230,15 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -2244,18 +2247,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -2263,13 +2266,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -2277,13 +2280,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -2291,13 +2294,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -2305,13 +2308,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -2319,13 +2322,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -2333,13 +2336,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -2347,30 +2350,30 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -2378,27 +2381,27 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -2406,13 +2409,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -2420,13 +2423,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -2434,13 +2437,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -2448,13 +2451,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -2462,13 +2465,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -2476,13 +2479,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -2490,13 +2493,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -2504,13 +2507,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -2518,13 +2521,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -2532,13 +2535,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -2546,13 +2549,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -2560,13 +2563,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -2574,13 +2577,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -2588,13 +2591,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -2602,30 +2605,30 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -2633,13 +2636,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -2647,13 +2650,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -2661,13 +2664,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -2675,13 +2678,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -2689,13 +2692,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -2703,13 +2706,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -2717,13 +2720,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -2731,13 +2734,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -2745,13 +2748,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -2759,13 +2762,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -2773,13 +2776,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -2787,13 +2790,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>3</v>
@@ -2801,13 +2804,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>3</v>
@@ -2815,13 +2818,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>3</v>
@@ -2829,13 +2832,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>3</v>
@@ -2843,13 +2846,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -2857,13 +2860,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -2871,13 +2874,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
@@ -2885,13 +2888,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>3</v>
@@ -2899,13 +2902,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>3</v>
@@ -2913,13 +2916,13 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>3</v>
@@ -2927,13 +2930,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>3</v>
@@ -2941,13 +2944,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>3</v>
@@ -2955,13 +2958,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>3</v>
@@ -2969,13 +2972,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>3</v>
@@ -2983,13 +2986,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>3</v>
@@ -2997,13 +3000,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>3</v>
@@ -3011,13 +3014,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>3</v>
@@ -3025,13 +3028,13 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>3</v>
@@ -3039,13 +3042,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>3</v>
@@ -3053,13 +3056,13 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>3</v>
@@ -3067,13 +3070,13 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>3</v>
@@ -3081,13 +3084,13 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>3</v>
@@ -3095,13 +3098,13 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>3</v>
@@ -3109,13 +3112,13 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>3</v>
@@ -3123,13 +3126,13 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>3</v>
@@ -3137,13 +3140,13 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>3</v>
@@ -3151,13 +3154,13 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>3</v>
@@ -3165,30 +3168,30 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>3</v>
@@ -3196,13 +3199,13 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>3</v>
@@ -3210,13 +3213,13 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>3</v>
@@ -3224,13 +3227,13 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>3</v>
@@ -3238,30 +3241,30 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>3</v>
@@ -3269,13 +3272,13 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>3</v>
@@ -3283,13 +3286,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>3</v>
@@ -3297,30 +3300,30 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>3</v>
@@ -3328,30 +3331,30 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>3</v>
@@ -3359,13 +3362,13 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>3</v>
@@ -3373,13 +3376,13 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>3</v>
@@ -3387,13 +3390,13 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>3</v>
@@ -3401,13 +3404,13 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>3</v>
@@ -3415,13 +3418,13 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>3</v>
@@ -3429,27 +3432,27 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>3</v>
@@ -3457,13 +3460,13 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>3</v>
@@ -3471,13 +3474,13 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>3</v>
@@ -3485,27 +3488,27 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>3</v>
@@ -3513,13 +3516,13 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>3</v>
@@ -3527,13 +3530,13 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>3</v>
@@ -3541,27 +3544,27 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>3</v>
@@ -3569,44 +3572,44 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="C106" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>3</v>
@@ -3614,13 +3617,13 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>3</v>
@@ -3628,61 +3631,61 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>3</v>
@@ -3690,27 +3693,27 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>3</v>
@@ -3718,30 +3721,30 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>3</v>
@@ -3749,41 +3752,41 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>3</v>
@@ -3791,13 +3794,13 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>3</v>
@@ -3805,41 +3808,41 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>3</v>
@@ -3847,13 +3850,13 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>3</v>
@@ -3861,13 +3864,13 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>3</v>
@@ -3875,13 +3878,13 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>3</v>
@@ -3889,13 +3892,13 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>3</v>
@@ -3903,13 +3906,13 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>3</v>
@@ -3917,44 +3920,44 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>3</v>
@@ -3962,13 +3965,13 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>3</v>
@@ -3976,30 +3979,30 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>3</v>
@@ -4007,13 +4010,13 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>3</v>
@@ -4021,30 +4024,30 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>3</v>
@@ -4052,13 +4055,13 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>3</v>
@@ -4066,13 +4069,13 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>3</v>
@@ -4080,13 +4083,13 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>3</v>
@@ -4094,13 +4097,13 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>3</v>
@@ -4108,13 +4111,13 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>3</v>
@@ -4122,58 +4125,58 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>3</v>
@@ -4181,64 +4184,64 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>3</v>
@@ -4246,30 +4249,30 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>3</v>
@@ -4277,13 +4280,13 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>3</v>
@@ -4291,13 +4294,13 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>3</v>
@@ -4305,13 +4308,13 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>3</v>
@@ -4319,55 +4322,55 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="C159" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>3</v>
@@ -4375,58 +4378,58 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>3</v>
@@ -4434,13 +4437,13 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>3</v>
@@ -4448,13 +4451,13 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>3</v>
@@ -4462,13 +4465,13 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>3</v>
@@ -4476,13 +4479,13 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>3</v>
@@ -4490,13 +4493,13 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>3</v>
@@ -4504,13 +4507,13 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>3</v>
@@ -4518,13 +4521,13 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>3</v>
@@ -4532,13 +4535,13 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="C171" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>3</v>
@@ -4546,13 +4549,13 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>3</v>
@@ -4560,13 +4563,13 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>3</v>
@@ -4574,13 +4577,13 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>3</v>
@@ -4588,13 +4591,13 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>3</v>
@@ -4602,13 +4605,13 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>3</v>
@@ -4616,13 +4619,13 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>3</v>
@@ -4630,13 +4633,13 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>3</v>
@@ -4644,106 +4647,106 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>3</v>
@@ -4751,44 +4754,44 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>3</v>
@@ -4796,13 +4799,13 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>3</v>
@@ -4810,13 +4813,13 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>3</v>
@@ -4824,13 +4827,13 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>3</v>
@@ -4838,27 +4841,27 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>3</v>
@@ -4866,64 +4869,64 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>3</v>
@@ -4931,30 +4934,30 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>3</v>
@@ -4962,13 +4965,13 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>3</v>
@@ -4976,13 +4979,13 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>3</v>
@@ -4990,114 +4993,114 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="E206" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>3</v>
@@ -5105,13 +5108,13 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>3</v>
@@ -5119,27 +5122,27 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>3</v>
@@ -5147,27 +5150,27 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>3</v>
@@ -5175,27 +5178,27 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>3</v>
@@ -5203,81 +5206,81 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>3</v>
@@ -5285,103 +5288,103 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>3</v>
@@ -5389,30 +5392,30 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>3</v>
@@ -5420,13 +5423,13 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>3</v>
@@ -5434,13 +5437,13 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>3</v>
@@ -5448,30 +5451,30 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>3</v>
@@ -5479,13 +5482,13 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>3</v>
@@ -5493,13 +5496,13 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>3</v>
@@ -5507,13 +5510,13 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>3</v>
@@ -5521,13 +5524,13 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>3</v>
@@ -5535,13 +5538,13 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="C239" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>3</v>
@@ -5549,13 +5552,13 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>3</v>
@@ -5563,27 +5566,27 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>3</v>
@@ -5591,13 +5594,13 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>3</v>
@@ -5605,13 +5608,13 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>3</v>
@@ -5619,58 +5622,58 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>3</v>
@@ -5678,13 +5681,13 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>3</v>
@@ -5692,13 +5695,13 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>3</v>
@@ -5706,61 +5709,61 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>3</v>
@@ -5768,13 +5771,13 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>3</v>
@@ -5782,27 +5785,27 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>3</v>
@@ -5810,44 +5813,44 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>3</v>
@@ -5855,13 +5858,13 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>3</v>
@@ -5869,13 +5872,13 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>3</v>
@@ -5883,13 +5886,13 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>3</v>
@@ -5897,13 +5900,13 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>3</v>
@@ -5911,13 +5914,13 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>3</v>
@@ -5925,13 +5928,13 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>3</v>
@@ -5939,13 +5942,13 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>3</v>
@@ -5953,13 +5956,13 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>3</v>
@@ -5967,27 +5970,27 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>3</v>
@@ -5995,13 +5998,13 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>3</v>
@@ -6009,13 +6012,13 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>3</v>
@@ -6023,13 +6026,13 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>3</v>
@@ -6037,47 +6040,47 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>3</v>
@@ -6085,30 +6088,30 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>3</v>
@@ -6116,13 +6119,13 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>3</v>
@@ -6130,13 +6133,13 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>3</v>
@@ -6144,27 +6147,27 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>3</v>
@@ -6172,13 +6175,13 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>3</v>
@@ -6186,13 +6189,13 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>3</v>
@@ -6200,13 +6203,13 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>3</v>
@@ -6214,13 +6217,13 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>3</v>
@@ -6228,13 +6231,13 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>3</v>
@@ -6242,13 +6245,13 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>3</v>
@@ -6256,13 +6259,13 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>3</v>
@@ -6270,13 +6273,13 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>3</v>
@@ -6284,13 +6287,13 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>3</v>
@@ -6298,13 +6301,13 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>3</v>
@@ -6312,13 +6315,13 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>3</v>
@@ -6326,30 +6329,30 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>3</v>
@@ -6357,13 +6360,13 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>3</v>
@@ -6371,27 +6374,27 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>3</v>
@@ -6399,13 +6402,13 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>3</v>
@@ -6413,13 +6416,13 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>3</v>
@@ -6427,13 +6430,13 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>3</v>
@@ -6441,13 +6444,13 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>3</v>
@@ -6455,13 +6458,13 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>3</v>
@@ -6469,13 +6472,13 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>3</v>
@@ -6483,13 +6486,13 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>3</v>
@@ -6497,13 +6500,13 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>3</v>
@@ -6511,13 +6514,13 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>3</v>
@@ -6525,13 +6528,13 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>3</v>
@@ -6539,13 +6542,13 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>3</v>
@@ -6553,13 +6556,13 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>3</v>
@@ -6567,27 +6570,27 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>3</v>
@@ -6595,30 +6598,30 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>3</v>
@@ -6626,13 +6629,13 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>3</v>
@@ -6640,13 +6643,13 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>3</v>
@@ -6654,13 +6657,13 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>3</v>
@@ -6668,13 +6671,13 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>3</v>
@@ -6682,13 +6685,13 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>3</v>
@@ -6696,13 +6699,13 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>3</v>
@@ -6710,13 +6713,13 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>3</v>
@@ -6724,13 +6727,13 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>3</v>
@@ -6738,30 +6741,30 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>3</v>
@@ -6769,13 +6772,13 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>3</v>
@@ -6783,13 +6786,13 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>3</v>
@@ -6797,13 +6800,13 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>3</v>
@@ -6811,13 +6814,13 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>3</v>
@@ -6825,13 +6828,13 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>3</v>
@@ -6839,13 +6842,13 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>3</v>
@@ -6853,13 +6856,13 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>3</v>
@@ -6867,13 +6870,13 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>3</v>
@@ -6881,13 +6884,13 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>3</v>
@@ -6895,27 +6898,27 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>2</v>
@@ -6924,24 +6927,24 @@
         <v>3</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/app/templates/template_rules_2.xlsx
+++ b/app/templates/template_rules_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="646">
   <si>
     <t xml:space="preserve">Certificado conformidad MINVU.</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t xml:space="preserve">Especificar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15.1</t>
   </si>
   <si>
     <t xml:space="preserve">Sala de máquinas o de poleas no reservado sólo a personal autorizado.</t>
@@ -2057,8 +2060,8 @@
   </sheetPr>
   <dimension ref="A1:E336"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B235" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E221" activeCellId="53" sqref="E1:E11 E19 E21 E37 E77 E82 E86 E88 E95 E99 E103 E105:E106 E109:E111 E113 E115 E117:E118 E121:E122 E129:E130 E133 E136 E143:E145 E147:E149 E151 E156:E158 E160:E162 E179:E184 E186:E187 E192 E194:E196 E198 E202:E208 E211 E213 E215 E217:E220 E222:E227 E229 E233 E241 E245:E247 E251:E253 E256 E258:E259 E269 E274:E275 E277 E281 E294 E297 E311 E313 E323 E334:E336 E221"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2608,7 +2611,7 @@
         <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>34</v>
@@ -2622,10 +2625,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>34</v>
@@ -2636,10 +2639,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>27</v>
@@ -2650,10 +2653,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>34</v>
@@ -2664,10 +2667,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>27</v>
@@ -2678,10 +2681,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>27</v>
@@ -2692,10 +2695,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>27</v>
@@ -2706,10 +2709,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>27</v>
@@ -2720,10 +2723,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>27</v>
@@ -2734,10 +2737,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>34</v>
@@ -2748,10 +2751,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>34</v>
@@ -2762,10 +2765,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>34</v>
@@ -2776,10 +2779,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>37</v>
@@ -2790,10 +2793,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>34</v>
@@ -2804,10 +2807,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>34</v>
@@ -2818,10 +2821,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>34</v>
@@ -2832,10 +2835,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>34</v>
@@ -2846,10 +2849,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>34</v>
@@ -2860,10 +2863,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>27</v>
@@ -2874,10 +2877,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>34</v>
@@ -2888,10 +2891,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>27</v>
@@ -2902,10 +2905,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>37</v>
@@ -2916,10 +2919,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>34</v>
@@ -2930,10 +2933,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>27</v>
@@ -2944,10 +2947,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>34</v>
@@ -2958,10 +2961,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>27</v>
@@ -2972,10 +2975,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>37</v>
@@ -2986,10 +2989,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>37</v>
@@ -3000,10 +3003,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>37</v>
@@ -3014,10 +3017,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>37</v>
@@ -3028,10 +3031,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>37</v>
@@ -3042,10 +3045,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>37</v>
@@ -3056,10 +3059,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>37</v>
@@ -3070,10 +3073,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>37</v>
@@ -3084,10 +3087,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>37</v>
@@ -3098,10 +3101,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>34</v>
@@ -3112,10 +3115,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>34</v>
@@ -3126,10 +3129,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>37</v>
@@ -3140,10 +3143,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>37</v>
@@ -3154,10 +3157,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>27</v>
@@ -3168,10 +3171,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>37</v>
@@ -3185,10 +3188,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>34</v>
@@ -3199,10 +3202,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>37</v>
@@ -3213,10 +3216,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>37</v>
@@ -3227,10 +3230,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>37</v>
@@ -3241,10 +3244,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>37</v>
@@ -3258,10 +3261,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>34</v>
@@ -3272,10 +3275,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>37</v>
@@ -3286,10 +3289,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>37</v>
@@ -3300,10 +3303,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>34</v>
@@ -3317,10 +3320,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>34</v>
@@ -3331,10 +3334,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>34</v>
@@ -3348,10 +3351,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>34</v>
@@ -3362,10 +3365,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>27</v>
@@ -3376,10 +3379,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>34</v>
@@ -3390,13 +3393,13 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>3</v>
@@ -3404,10 +3407,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>37</v>
@@ -3418,10 +3421,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>37</v>
@@ -3432,10 +3435,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>37</v>
@@ -3446,10 +3449,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>37</v>
@@ -3460,10 +3463,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>34</v>
@@ -3474,10 +3477,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>34</v>
@@ -3488,10 +3491,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>34</v>
@@ -3502,10 +3505,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>27</v>
@@ -3516,10 +3519,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>34</v>
@@ -3530,10 +3533,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>34</v>
@@ -3544,10 +3547,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>27</v>
@@ -3558,10 +3561,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>34</v>
@@ -3572,10 +3575,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>27</v>
@@ -3589,10 +3592,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>34</v>
@@ -3603,10 +3606,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>34</v>
@@ -3617,10 +3620,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>37</v>
@@ -3631,10 +3634,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>27</v>
@@ -3645,10 +3648,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>27</v>
@@ -3662,10 +3665,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>27</v>
@@ -3679,10 +3682,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>27</v>
@@ -3693,10 +3696,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>37</v>
@@ -3707,10 +3710,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>37</v>
@@ -3721,10 +3724,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>34</v>
@@ -3738,10 +3741,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>37</v>
@@ -3752,10 +3755,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>37</v>
@@ -3766,10 +3769,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>27</v>
@@ -3780,10 +3783,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>34</v>
@@ -3794,10 +3797,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>37</v>
@@ -3808,10 +3811,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>37</v>
@@ -3822,10 +3825,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>37</v>
@@ -3836,10 +3839,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>37</v>
@@ -3850,10 +3853,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>34</v>
@@ -3864,10 +3867,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>37</v>
@@ -3878,10 +3881,10 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>34</v>
@@ -3892,10 +3895,10 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>34</v>
@@ -3906,13 +3909,13 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>3</v>
@@ -3920,10 +3923,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>37</v>
@@ -3934,10 +3937,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>34</v>
@@ -3951,10 +3954,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>27</v>
@@ -3965,10 +3968,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>27</v>
@@ -3979,10 +3982,10 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>27</v>
@@ -3996,10 +3999,10 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>27</v>
@@ -4010,10 +4013,10 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>27</v>
@@ -4024,13 +4027,13 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>3</v>
@@ -4041,10 +4044,10 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>27</v>
@@ -4055,10 +4058,10 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>34</v>
@@ -4069,10 +4072,10 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>34</v>
@@ -4083,10 +4086,10 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>34</v>
@@ -4097,10 +4100,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>34</v>
@@ -4111,10 +4114,10 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>27</v>
@@ -4125,10 +4128,10 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>27</v>
@@ -4139,10 +4142,10 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>27</v>
@@ -4156,10 +4159,10 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>34</v>
@@ -4170,10 +4173,10 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>34</v>
@@ -4184,10 +4187,10 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>37</v>
@@ -4201,10 +4204,10 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>37</v>
@@ -4218,10 +4221,10 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>37</v>
@@ -4235,10 +4238,10 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>37</v>
@@ -4249,10 +4252,10 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>37</v>
@@ -4266,10 +4269,10 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>34</v>
@@ -4280,10 +4283,10 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>37</v>
@@ -4294,10 +4297,10 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>27</v>
@@ -4308,10 +4311,10 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>27</v>
@@ -4322,10 +4325,10 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>34</v>
@@ -4336,10 +4339,10 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>34</v>
@@ -4350,10 +4353,10 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>37</v>
@@ -4364,10 +4367,10 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>37</v>
@@ -4378,10 +4381,10 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>37</v>
@@ -4395,10 +4398,10 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>34</v>
@@ -4409,10 +4412,10 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>37</v>
@@ -4423,10 +4426,10 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>37</v>
@@ -4437,10 +4440,10 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>37</v>
@@ -4451,10 +4454,10 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>37</v>
@@ -4465,10 +4468,10 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>37</v>
@@ -4479,10 +4482,10 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>34</v>
@@ -4493,10 +4496,10 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>37</v>
@@ -4507,10 +4510,10 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>34</v>
@@ -4521,10 +4524,10 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>34</v>
@@ -4535,10 +4538,10 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>34</v>
@@ -4549,10 +4552,10 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>34</v>
@@ -4563,10 +4566,10 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>34</v>
@@ -4577,10 +4580,10 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>27</v>
@@ -4591,10 +4594,10 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>27</v>
@@ -4605,10 +4608,10 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>27</v>
@@ -4619,10 +4622,10 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>34</v>
@@ -4633,10 +4636,10 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>37</v>
@@ -4647,10 +4650,10 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>34</v>
@@ -4661,10 +4664,10 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>34</v>
@@ -4678,10 +4681,10 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>27</v>
@@ -4695,10 +4698,10 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>34</v>
@@ -4712,10 +4715,10 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>34</v>
@@ -4726,10 +4729,10 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>34</v>
@@ -4740,10 +4743,10 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>34</v>
@@ -4754,10 +4757,10 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>34</v>
@@ -4768,10 +4771,10 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>37</v>
@@ -4785,10 +4788,10 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>27</v>
@@ -4799,10 +4802,10 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>37</v>
@@ -4813,13 +4816,13 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>3</v>
@@ -4827,10 +4830,10 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>34</v>
@@ -4841,10 +4844,10 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>34</v>
@@ -4855,10 +4858,10 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>34</v>
@@ -4869,10 +4872,10 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>27</v>
@@ -4886,10 +4889,10 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>27</v>
@@ -4903,10 +4906,10 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>34</v>
@@ -4920,10 +4923,10 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>27</v>
@@ -4934,10 +4937,10 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>37</v>
@@ -4951,10 +4954,10 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>37</v>
@@ -4965,10 +4968,10 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>27</v>
@@ -4979,10 +4982,10 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>27</v>
@@ -4993,10 +4996,10 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>37</v>
@@ -5007,10 +5010,10 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>37</v>
@@ -5021,10 +5024,10 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>37</v>
@@ -5035,13 +5038,13 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>4</v>
@@ -5049,13 +5052,13 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>4</v>
@@ -5063,10 +5066,10 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>34</v>
@@ -5077,13 +5080,13 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>3</v>
@@ -5094,10 +5097,10 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>37</v>
@@ -5108,10 +5111,10 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>34</v>
@@ -5122,10 +5125,10 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>27</v>
@@ -5136,10 +5139,10 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>34</v>
@@ -5150,10 +5153,10 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>27</v>
@@ -5164,10 +5167,10 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>34</v>
@@ -5178,10 +5181,10 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>34</v>
@@ -5192,10 +5195,10 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>34</v>
@@ -5206,10 +5209,10 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>34</v>
@@ -5223,10 +5226,10 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>27</v>
@@ -5240,10 +5243,10 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>34</v>
@@ -5257,10 +5260,10 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>37</v>
@@ -5274,13 +5277,13 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>3</v>
@@ -5288,10 +5291,10 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>37</v>
@@ -5302,13 +5305,13 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>4</v>
@@ -5316,10 +5319,10 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>37</v>
@@ -5333,10 +5336,10 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>37</v>
@@ -5350,13 +5353,13 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>4</v>
@@ -5364,10 +5367,10 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>37</v>
@@ -5378,13 +5381,13 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>3</v>
@@ -5392,10 +5395,10 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>37</v>
@@ -5409,10 +5412,10 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>34</v>
@@ -5423,10 +5426,10 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>27</v>
@@ -5437,10 +5440,10 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>34</v>
@@ -5451,10 +5454,10 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>34</v>
@@ -5468,10 +5471,10 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>34</v>
@@ -5482,10 +5485,10 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>27</v>
@@ -5496,10 +5499,10 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>34</v>
@@ -5510,10 +5513,10 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>34</v>
@@ -5524,10 +5527,10 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>37</v>
@@ -5538,10 +5541,10 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>37</v>
@@ -5552,10 +5555,10 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>37</v>
@@ -5566,10 +5569,10 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>34</v>
@@ -5580,10 +5583,10 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>34</v>
@@ -5594,10 +5597,10 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>34</v>
@@ -5608,10 +5611,10 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>37</v>
@@ -5622,10 +5625,10 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>34</v>
@@ -5636,10 +5639,10 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>37</v>
@@ -5650,10 +5653,10 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>34</v>
@@ -5667,10 +5670,10 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>27</v>
@@ -5681,10 +5684,10 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>27</v>
@@ -5695,10 +5698,10 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>27</v>
@@ -5709,10 +5712,10 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>34</v>
@@ -5726,10 +5729,10 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>27</v>
@@ -5743,10 +5746,10 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>34</v>
@@ -5757,10 +5760,10 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>34</v>
@@ -5771,10 +5774,10 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>34</v>
@@ -5785,10 +5788,10 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>34</v>
@@ -5799,10 +5802,10 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>34</v>
@@ -5813,13 +5816,13 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>4</v>
@@ -5827,13 +5830,13 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>3</v>
@@ -5844,10 +5847,10 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>34</v>
@@ -5858,10 +5861,10 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>37</v>
@@ -5872,10 +5875,10 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>34</v>
@@ -5886,10 +5889,10 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>37</v>
@@ -5900,10 +5903,10 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>34</v>
@@ -5914,10 +5917,10 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>34</v>
@@ -5928,10 +5931,10 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>34</v>
@@ -5942,10 +5945,10 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>37</v>
@@ -5956,10 +5959,10 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>37</v>
@@ -5970,10 +5973,10 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>37</v>
@@ -5984,10 +5987,10 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>37</v>
@@ -5998,10 +6001,10 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>37</v>
@@ -6012,10 +6015,10 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>34</v>
@@ -6026,10 +6029,10 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>34</v>
@@ -6040,10 +6043,10 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>37</v>
@@ -6057,10 +6060,10 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>37</v>
@@ -6074,10 +6077,10 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>34</v>
@@ -6088,10 +6091,10 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>34</v>
@@ -6105,10 +6108,10 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>27</v>
@@ -6119,10 +6122,10 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>34</v>
@@ -6133,10 +6136,10 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>37</v>
@@ -6147,10 +6150,10 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>37</v>
@@ -6161,10 +6164,10 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>27</v>
@@ -6175,10 +6178,10 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>27</v>
@@ -6189,10 +6192,10 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>34</v>
@@ -6203,10 +6206,10 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>34</v>
@@ -6217,10 +6220,10 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>27</v>
@@ -6231,10 +6234,10 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>27</v>
@@ -6245,10 +6248,10 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>37</v>
@@ -6259,10 +6262,10 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>34</v>
@@ -6273,10 +6276,10 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>34</v>
@@ -6287,10 +6290,10 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>34</v>
@@ -6301,10 +6304,10 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>27</v>
@@ -6315,10 +6318,10 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>34</v>
@@ -6329,10 +6332,10 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>34</v>
@@ -6346,10 +6349,10 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>27</v>
@@ -6360,10 +6363,10 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>34</v>
@@ -6374,10 +6377,10 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>34</v>
@@ -6388,13 +6391,13 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>3</v>
@@ -6402,10 +6405,10 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>37</v>
@@ -6416,10 +6419,10 @@
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>37</v>
@@ -6430,10 +6433,10 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>34</v>
@@ -6444,10 +6447,10 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>27</v>
@@ -6458,10 +6461,10 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>37</v>
@@ -6472,10 +6475,10 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>37</v>
@@ -6486,10 +6489,10 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>34</v>
@@ -6500,10 +6503,10 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>34</v>
@@ -6514,10 +6517,10 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>34</v>
@@ -6528,10 +6531,10 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>34</v>
@@ -6542,10 +6545,10 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>27</v>
@@ -6556,10 +6559,10 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>37</v>
@@ -6570,10 +6573,10 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>37</v>
@@ -6584,10 +6587,10 @@
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>27</v>
@@ -6598,10 +6601,10 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>34</v>
@@ -6615,10 +6618,10 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>34</v>
@@ -6629,10 +6632,10 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>34</v>
@@ -6643,10 +6646,10 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>34</v>
@@ -6657,10 +6660,10 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>34</v>
@@ -6671,10 +6674,10 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>27</v>
@@ -6685,10 +6688,10 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>34</v>
@@ -6699,10 +6702,10 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>27</v>
@@ -6713,10 +6716,10 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>34</v>
@@ -6727,10 +6730,10 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>27</v>
@@ -6741,10 +6744,10 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>34</v>
@@ -6758,10 +6761,10 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>27</v>
@@ -6772,10 +6775,10 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>27</v>
@@ -6786,10 +6789,10 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>27</v>
@@ -6800,10 +6803,10 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>27</v>
@@ -6814,10 +6817,10 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>27</v>
@@ -6828,10 +6831,10 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>27</v>
@@ -6842,10 +6845,10 @@
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>37</v>
@@ -6856,10 +6859,10 @@
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>37</v>
@@ -6870,10 +6873,10 @@
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>34</v>
@@ -6884,10 +6887,10 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>34</v>
@@ -6898,10 +6901,10 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>34</v>
@@ -6915,10 +6918,10 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>2</v>
@@ -6932,10 +6935,10 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>34</v>

--- a/app/templates/template_rules_2.xlsx
+++ b/app/templates/template_rules_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="627">
   <si>
     <t xml:space="preserve">Certificado conformidad MINVU.</t>
   </si>
@@ -244,12 +244,6 @@
     <t xml:space="preserve">1.14.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Especificar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sala de máquinas o de poleas no reservado sólo a personal autorizado.</t>
   </si>
   <si>
@@ -529,12 +523,6 @@
     <t xml:space="preserve">2.16.1</t>
   </si>
   <si>
-    <t xml:space="preserve">(Especificar).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Puertas de piso de dimensiones no reglamentarias</t>
   </si>
   <si>
@@ -775,12 +763,6 @@
     <t xml:space="preserve">3.14.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Especificar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paredes, techo y estructura de piso de cabina no reglamentario</t>
   </si>
   <si>
@@ -1066,12 +1048,6 @@
     <t xml:space="preserve">4.14.7</t>
   </si>
   <si>
-    <t xml:space="preserve">(Especificar)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cable(s) suspensión con un torón roto o alambres rotos en un paso.</t>
   </si>
   <si>
@@ -1360,9 +1336,6 @@
     <t xml:space="preserve">5.15.3</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Características no reglamentarias de los rieles guía de cabina. </t>
   </si>
   <si>
@@ -1462,9 +1435,6 @@
     <t xml:space="preserve">6.6.2</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Holguras cabina – recinto inferiores a las reglamentarias en ascensores sin puerta en cabina (especificar).</t>
   </si>
   <si>
@@ -1483,9 +1453,6 @@
     <t xml:space="preserve">7.3.1</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Existencia de desgaste excesivo de superficies consumibles del sistema de freno (especificar)</t>
   </si>
   <si>
@@ -1636,9 +1603,6 @@
     <t xml:space="preserve">8.14.1</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">La superficie de trabajo en techo de cabina es menor 0,5 x 0,6 m.</t>
   </si>
   <si>
@@ -1735,9 +1699,6 @@
     <t xml:space="preserve">9.2.11.1</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2.12.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.3.1.1</t>
   </si>
   <si>
@@ -1822,9 +1783,6 @@
     <t xml:space="preserve">9.3.7.4</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3.8.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inexistencia de armario de la maquinaria.</t>
   </si>
   <si>
@@ -1879,12 +1837,6 @@
     <t xml:space="preserve">9.4.2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">(Especificar) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4.3.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">No existe continuidad de tierra o conexiones no reglamentarias.</t>
   </si>
   <si>
@@ -1945,19 +1897,10 @@
     <t xml:space="preserve">10.7.1</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">El ascensor no cumple la reglamentación (desviaciones particulares) con la que fue puesto en servicio, y no existe constancia documental que justifique dicho incumplimiento (especificar).</t>
   </si>
   <si>
     <t xml:space="preserve">11.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (especificar).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2.1</t>
   </si>
 </sst>
 </file>
@@ -2058,10 +2001,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E336"/>
+  <dimension ref="A1:E323"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A321" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2619,9 +2562,6 @@
       <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
@@ -2631,7 +2571,7 @@
         <v>77</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -2645,7 +2585,7 @@
         <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -2659,7 +2599,7 @@
         <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -2729,7 +2669,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -2771,7 +2711,7 @@
         <v>97</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -2785,7 +2725,7 @@
         <v>99</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -2855,7 +2795,7 @@
         <v>109</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -2869,7 +2809,7 @@
         <v>111</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -2883,7 +2823,7 @@
         <v>113</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
@@ -2897,7 +2837,7 @@
         <v>115</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>3</v>
@@ -2911,7 +2851,7 @@
         <v>117</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>3</v>
@@ -2925,7 +2865,7 @@
         <v>119</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>3</v>
@@ -2939,7 +2879,7 @@
         <v>121</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>3</v>
@@ -2953,7 +2893,7 @@
         <v>123</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>3</v>
@@ -2967,7 +2907,7 @@
         <v>125</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>3</v>
@@ -3020,7 +2960,7 @@
         <v>132</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>37</v>
@@ -3031,10 +2971,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>37</v>
@@ -3076,7 +3016,7 @@
         <v>139</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>37</v>
@@ -3087,13 +3027,13 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>3</v>
@@ -3121,7 +3061,7 @@
         <v>145</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>3</v>
@@ -3146,10 +3086,10 @@
         <v>148</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>3</v>
@@ -3157,16 +3097,19 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,13 +3120,10 @@
         <v>152</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3194,7 +3134,7 @@
         <v>154</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>3</v>
@@ -3230,16 +3170,19 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C81" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,16 +3190,13 @@
         <v>151</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,10 +3204,10 @@
         <v>153</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>3</v>
@@ -3278,7 +3218,7 @@
         <v>155</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>37</v>
@@ -3289,16 +3229,19 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,9 +3257,6 @@
       <c r="D86" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
@@ -3340,13 +3280,10 @@
         <v>170</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3371,7 +3308,7 @@
         <v>174</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>3</v>
@@ -3379,13 +3316,13 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>3</v>
@@ -3393,13 +3330,13 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>3</v>
@@ -3415,8 +3352,8 @@
       <c r="C93" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>3</v>
+      <c r="E93" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,10 +3378,10 @@
         <v>185</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3452,10 +3389,10 @@
         <v>186</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>3</v>
@@ -3463,27 +3400,27 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>3</v>
+      <c r="E97" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>3</v>
@@ -3491,16 +3428,16 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="C99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>4</v>
+      <c r="D99" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,7 +3448,7 @@
         <v>193</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>3</v>
@@ -3525,10 +3462,10 @@
         <v>195</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,6 +3492,9 @@
       <c r="C103" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D103" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E103" s="1" t="s">
         <v>4</v>
       </c>
@@ -3564,44 +3504,41 @@
         <v>200</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>3</v>
+      <c r="E104" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="C105" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="C106" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,35 +3549,41 @@
         <v>206</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="C108" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="C109" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>4</v>
@@ -3648,7 +3591,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>211</v>
@@ -3658,9 +3601,6 @@
       </c>
       <c r="D110" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3671,10 +3611,7 @@
         <v>213</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>4</v>
@@ -3688,7 +3625,7 @@
         <v>215</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>3</v>
@@ -3702,7 +3639,10 @@
         <v>217</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>4</v>
@@ -3730,10 +3670,7 @@
         <v>221</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>4</v>
@@ -3747,10 +3684,10 @@
         <v>223</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,10 +3698,10 @@
         <v>225</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,10 +3712,10 @@
         <v>227</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3789,10 +3726,10 @@
         <v>229</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,8 +3742,8 @@
       <c r="C120" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>3</v>
+      <c r="E120" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3819,8 +3756,8 @@
       <c r="C121" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>4</v>
+      <c r="D121" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,10 +3768,10 @@
         <v>235</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3873,7 +3810,7 @@
         <v>241</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>3</v>
@@ -3887,7 +3824,7 @@
         <v>243</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>3</v>
@@ -3895,27 +3832,27 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>3</v>
@@ -3929,10 +3866,10 @@
         <v>250</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3943,7 +3880,7 @@
         <v>252</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>3</v>
@@ -3988,7 +3925,7 @@
         <v>258</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>3</v>
@@ -3999,10 +3936,10 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>27</v>
@@ -4013,13 +3950,13 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>3</v>
@@ -4027,19 +3964,16 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,7 +3984,7 @@
         <v>267</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>3</v>
@@ -4078,7 +4012,7 @@
         <v>271</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>3</v>
@@ -4089,55 +4023,58 @@
         <v>272</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="C141" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="C142" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4148,7 +4085,7 @@
         <v>280</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>3</v>
@@ -4165,7 +4102,10 @@
         <v>282</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>4</v>
@@ -4179,10 +4119,13 @@
         <v>284</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4198,9 +4141,6 @@
       <c r="D147" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
@@ -4227,13 +4167,10 @@
         <v>290</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,13 +4195,10 @@
         <v>294</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4275,7 +4209,7 @@
         <v>296</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>3</v>
@@ -4289,10 +4223,10 @@
         <v>298</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4303,10 +4237,10 @@
         <v>300</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4317,10 +4251,10 @@
         <v>302</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4328,24 +4262,27 @@
         <v>303</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="C157" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>4</v>
@@ -4353,13 +4290,13 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="C158" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>4</v>
@@ -4367,16 +4304,16 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="C159" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>3</v>
+      <c r="E159" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,9 +4329,6 @@
       <c r="D160" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
@@ -4404,10 +4338,10 @@
         <v>313</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4420,8 +4354,8 @@
       <c r="C162" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>4</v>
+      <c r="D162" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,7 +4380,7 @@
         <v>319</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>3</v>
@@ -4474,7 +4408,7 @@
         <v>323</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>3</v>
@@ -4499,10 +4433,10 @@
         <v>326</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>3</v>
@@ -4510,10 +4444,10 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>34</v>
@@ -4524,10 +4458,10 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>34</v>
@@ -4538,13 +4472,13 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="C171" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>3</v>
@@ -4558,7 +4492,7 @@
         <v>334</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>3</v>
@@ -4572,7 +4506,7 @@
         <v>336</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>3</v>
@@ -4580,13 +4514,13 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="C174" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>3</v>
@@ -4594,13 +4528,13 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="C175" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>3</v>
@@ -4608,30 +4542,33 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="C176" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>283</v>
+        <v>342</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>343</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4642,10 +4579,13 @@
         <v>345</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,9 +4612,6 @@
       <c r="C180" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E180" s="1" t="s">
         <v>4</v>
       </c>
@@ -4687,13 +4624,10 @@
         <v>351</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4706,9 +4640,6 @@
       <c r="C182" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E182" s="1" t="s">
         <v>4</v>
       </c>
@@ -4721,7 +4652,10 @@
         <v>355</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>4</v>
@@ -4735,10 +4669,10 @@
         <v>357</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4749,7 +4683,7 @@
         <v>359</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>3</v>
@@ -4763,10 +4697,10 @@
         <v>361</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>4</v>
+        <v>244</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,13 +4711,10 @@
         <v>363</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4794,10 +4725,10 @@
         <v>365</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4808,7 +4739,7 @@
         <v>367</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>3</v>
@@ -4822,10 +4753,13 @@
         <v>369</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,10 +4770,13 @@
         <v>371</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4852,6 +4789,9 @@
       <c r="C192" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D192" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E192" s="1" t="s">
         <v>4</v>
       </c>
@@ -4864,7 +4804,7 @@
         <v>375</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>3</v>
@@ -4878,7 +4818,7 @@
         <v>377</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>3</v>
@@ -4895,13 +4835,10 @@
         <v>379</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,13 +4849,10 @@
         <v>381</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4945,9 +4879,6 @@
       <c r="C198" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E198" s="1" t="s">
         <v>4</v>
       </c>
@@ -4962,8 +4893,8 @@
       <c r="C199" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>3</v>
+      <c r="E199" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,10 +4905,10 @@
         <v>389</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4988,21 +4919,21 @@
         <v>391</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>3</v>
+        <v>392</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>4</v>
@@ -5010,13 +4941,13 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>4</v>
@@ -5024,13 +4955,16 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>37</v>
+        <v>392</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>4</v>
@@ -5038,16 +4972,16 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5058,10 +4992,10 @@
         <v>402</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,7 +5006,7 @@
         <v>404</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>4</v>
@@ -5086,13 +5020,10 @@
         <v>406</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>400</v>
+        <v>34</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,10 +5034,10 @@
         <v>408</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,7 +5062,7 @@
         <v>412</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>4</v>
@@ -5139,10 +5070,10 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>34</v>
@@ -5153,13 +5084,16 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="C213" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>4</v>
@@ -5167,27 +5101,33 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="C214" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="C215" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>4</v>
@@ -5195,16 +5135,19 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>421</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5215,13 +5158,10 @@
         <v>423</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>34</v>
+        <v>392</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5232,10 +5172,7 @@
         <v>425</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>4</v>
@@ -5249,10 +5186,7 @@
         <v>427</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>4</v>
@@ -5283,10 +5217,13 @@
         <v>431</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5297,7 +5234,7 @@
         <v>433</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>37</v>
+        <v>392</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>4</v>
@@ -5311,7 +5248,7 @@
         <v>435</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>400</v>
+        <v>37</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>4</v>
@@ -5325,13 +5262,10 @@
         <v>437</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>37</v>
+        <v>392</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5342,13 +5276,10 @@
         <v>439</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,10 +5290,10 @@
         <v>441</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5373,10 +5304,10 @@
         <v>443</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5387,38 +5318,38 @@
         <v>445</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>400</v>
+        <v>34</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>169</v>
+        <v>446</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>3</v>
@@ -5426,13 +5357,13 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>3</v>
@@ -5440,10 +5371,10 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>34</v>
@@ -5454,30 +5385,27 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="C234" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>3</v>
@@ -5491,7 +5419,7 @@
         <v>458</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>3</v>
@@ -5507,8 +5435,8 @@
       <c r="C236" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>3</v>
+      <c r="E236" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5533,7 +5461,7 @@
         <v>464</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>3</v>
@@ -5544,7 +5472,7 @@
         <v>465</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>37</v>
@@ -5555,27 +5483,27 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>4</v>
@@ -5583,13 +5511,13 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>3</v>
@@ -5597,13 +5525,13 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>3</v>
@@ -5611,13 +5539,13 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>3</v>
@@ -5625,13 +5553,16 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>4</v>
@@ -5639,13 +5570,13 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>4</v>
@@ -5653,30 +5584,27 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>169</v>
+        <v>481</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>3</v>
@@ -5684,27 +5612,27 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>3</v>
@@ -5712,16 +5640,13 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
-        <v>169</v>
+        <v>489</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>4</v>
@@ -5729,13 +5654,13 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>27</v>
+        <v>392</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>3</v>
@@ -5746,27 +5671,27 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E253" s="1" t="s">
-        <v>4</v>
+      <c r="D253" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>3</v>
@@ -5774,10 +5699,10 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>34</v>
@@ -5788,24 +5713,24 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>34</v>
@@ -5816,44 +5741,41 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>400</v>
+        <v>34</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>3</v>
@@ -5861,10 +5783,10 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>37</v>
@@ -5875,24 +5797,24 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>37</v>
@@ -5903,13 +5825,13 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>3</v>
@@ -5917,10 +5839,10 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>34</v>
@@ -5931,10 +5853,10 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>34</v>
@@ -5945,55 +5867,61 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>3</v>
@@ -6001,13 +5929,13 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>3</v>
@@ -6015,13 +5943,13 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>3</v>
@@ -6029,58 +5957,52 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>34</v>
@@ -6091,27 +6013,24 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>169</v>
+        <v>541</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>27</v>
@@ -6122,13 +6041,13 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>3</v>
@@ -6136,10 +6055,10 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>37</v>
@@ -6150,27 +6069,27 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>3</v>
@@ -6178,13 +6097,13 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>3</v>
@@ -6192,13 +6111,13 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>3</v>
@@ -6206,10 +6125,10 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>34</v>
@@ -6220,10 +6139,10 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>27</v>
@@ -6234,13 +6153,13 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>3</v>
@@ -6248,27 +6167,27 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>3</v>
@@ -6276,13 +6195,13 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>3</v>
@@ -6290,13 +6209,13 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>3</v>
@@ -6304,13 +6223,13 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>3</v>
@@ -6318,13 +6237,13 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>3</v>
@@ -6332,30 +6251,27 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>169</v>
+        <v>545</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>3</v>
@@ -6363,10 +6279,10 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>34</v>
@@ -6377,27 +6293,27 @@
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E297" s="1" t="s">
-        <v>4</v>
+      <c r="D297" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>248</v>
+        <v>34</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>3</v>
@@ -6405,13 +6321,13 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>580</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>3</v>
@@ -6425,7 +6341,7 @@
         <v>582</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>3</v>
@@ -6433,13 +6349,13 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>584</v>
-      </c>
       <c r="C301" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>3</v>
@@ -6447,27 +6363,27 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>585</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D302" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>586</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>3</v>
@@ -6481,7 +6397,7 @@
         <v>588</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>3</v>
@@ -6489,10 +6405,10 @@
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>34</v>
@@ -6503,10 +6419,10 @@
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>34</v>
@@ -6517,10 +6433,10 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>34</v>
@@ -6531,13 +6447,13 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>3</v>
@@ -6545,13 +6461,13 @@
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>3</v>
@@ -6559,13 +6475,13 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>543</v>
+        <v>599</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>3</v>
@@ -6573,24 +6489,24 @@
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>547</v>
+        <v>603</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>27</v>
@@ -6601,30 +6517,27 @@
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>348</v>
+        <v>605</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>3</v>
@@ -6632,13 +6545,13 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>3</v>
@@ -6646,13 +6559,13 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>3</v>
@@ -6660,13 +6573,13 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>3</v>
@@ -6674,10 +6587,10 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>27</v>
@@ -6688,13 +6601,13 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>3</v>
@@ -6702,13 +6615,13 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>3</v>
@@ -6716,10 +6629,10 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>34</v>
@@ -6730,13 +6643,13 @@
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>3</v>
@@ -6744,209 +6657,18 @@
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E334" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E336" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/app/templates/template_rules_2.xlsx
+++ b/app/templates/template_rules_2.xlsx
@@ -1078,7 +1078,7 @@
     <t xml:space="preserve">5.2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Cacle de suspensión flojo con riesgo de desmonte de la garganta de la polea.</t>
+    <t xml:space="preserve">Cable de suspensión flojo con riesgo de desmonte de la garganta de la polea.</t>
   </si>
   <si>
     <t xml:space="preserve">5.2.2</t>
@@ -2003,8 +2003,8 @@
   </sheetPr>
   <dimension ref="A1:E323"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A321" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A158" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A182" activeCellId="0" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
